--- a/biology/Médecine/Septum_nasal/Septum_nasal.xlsx
+++ b/biology/Médecine/Septum_nasal/Septum_nasal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le septum nasal (ou cloison des fosses nasales) est la cloison médiane séparant les cavités nasales droite et gauche.
 </t>
@@ -511,15 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le septum nasal est une paroi médiale verticale composée d'une partie osseuse et d'une partie cartilagineuse.
 Il est recouvert par la muqueuse de la cavité nasale. La muqueuse est olfactive dans sa partie supérieure. Dans sa partie antérieure et inférieure, se trouve l'orifice de l'organe voméronasal et la zone de Kiesselbach.
-L'extrémité antérieure cutanéo-cartilagineuse de la cloison nasale est appelée columelle nasale[1]. Il est normalement épais d'environ 2 mm[2].
-Partie osseuse
-La partie osseuse est la partie postérieure du septum nasal. Elle est constituée en haut par la lame perpendiculaire de l'os ethmoïde et en bas par le vomer.
-Partie cartilagineuse
-La partie cartilagineuse est la partie antérieure du septum nasal et est constituée sur toute sa hauteur par le cartilage septal du nez.
+L'extrémité antérieure cutanéo-cartilagineuse de la cloison nasale est appelée columelle nasale. Il est normalement épais d'environ 2 mm.
 </t>
         </is>
       </c>
@@ -545,10 +555,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Partie osseuse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie osseuse est la partie postérieure du septum nasal. Elle est constituée en haut par la lame perpendiculaire de l'os ethmoïde et en bas par le vomer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Septum_nasal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Septum_nasal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Partie cartilagineuse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie cartilagineuse est la partie antérieure du septum nasal et est constituée sur toute sa hauteur par le cartilage septal du nez.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Septum_nasal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Septum_nasal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le septum du nez est issu d'une plaque de cartilage.
 La partie postérieur-supérieure de ce cartilage s'ossifie pour former la lame perpendiculaire de l'os ethmoïde. Sa partie antéro-inférieure persiste sous la forme du cartilage septal du nez.
@@ -560,35 +646,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Septum_nasal</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Septum_nasal</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut exister une déviation de la cloison nasale soit lors de sa croissance, soit traumatique. Une déviation trop prononcée peut nuire à la fonction respiratoire.
 Pour des raisons fonctionnelles ou esthétiques, il est possible de pratiquer une septoplastie, intervention chirurgicale consistant à redresser le septum nasal.
-La cloison nasale peut être perforée par un ulcère, un traumatisme, une exposition à long terme aux fumées de soudage [3] ou à la consommation de cocaïne. Un bouton en silicone peut être inséré dans le trou pour fermer la perforation.
+La cloison nasale peut être perforée par un ulcère, un traumatisme, une exposition à long terme aux fumées de soudage  ou à la consommation de cocaïne. Un bouton en silicone peut être inséré dans le trou pour fermer la perforation.
 La cloison nasale peut être affectée à la fois par des tumeurs bénignes telles que les fibromes et les hémangiomes et par des tumeurs malignes telles que le carcinome épidermoïde.
 </t>
         </is>
